--- a/docs.xlsx
+++ b/docs.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Nhật" sheetId="1" r:id="rId1"/>
     <sheet name="Quảng" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>TC IDA1</t>
   </si>
@@ -116,12 +116,21 @@
   </si>
   <si>
     <t>Click ra ngoài phải tắt được</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tast</t>
+  </si>
+  <si>
+    <t>cách làm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,13 +254,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -592,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -610,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -654,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -676,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -698,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -729,10 +738,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
         <v>10</v>
@@ -751,37 +760,34 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -798,16 +804,14 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -816,16 +820,14 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -836,12 +838,8 @@
         <v>14</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
         <v>10</v>
@@ -858,18 +856,14 @@
         <v>17</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -880,18 +874,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -902,18 +892,14 @@
         <v>23</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -924,10 +910,8 @@
         <v>27</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -944,10 +928,8 @@
         <v>30</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
         <v>10</v>
